--- a/dist/outputs/Retenciones-Estructurado.xlsx
+++ b/dist/outputs/Retenciones-Estructurado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Concepto</t>
   </si>
@@ -28,12 +28,15 @@
     <t>Razón Social</t>
   </si>
   <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>ELITE CONSULTING S.A.S</t>
+  </si>
+  <si>
     <t>Rentas de trabajo (Base sujeta a retención para pagos o abonos en cuenta)</t>
   </si>
   <si>
-    <t>ELITE CONSULTING S.A.S</t>
-  </si>
-  <si>
     <t>Rentas de pensiones (Base sujeta a retención para pagos o abonos en cuenta)</t>
   </si>
   <si>
@@ -212,6 +215,12 @@
   </si>
   <si>
     <t>Total retenciones más sanciones</t>
+  </si>
+  <si>
+    <t>Tarifa</t>
+  </si>
+  <si>
+    <t>0.8%</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -296,10 +305,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2019</v>
@@ -313,7 +322,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
@@ -330,7 +339,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
@@ -347,7 +356,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -364,7 +373,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -381,7 +390,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
@@ -398,10 +407,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>3706000</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>2019</v>
@@ -415,10 +424,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0</v>
+        <v>3706000</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>2019</v>
@@ -432,7 +441,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
@@ -449,7 +458,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -466,7 +475,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
@@ -483,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
@@ -500,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0</v>
@@ -517,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0</v>
@@ -534,7 +543,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
@@ -551,10 +560,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>14260000</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2019</v>
@@ -568,10 +577,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0</v>
+        <v>14260000</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2019</v>
@@ -585,7 +594,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0</v>
@@ -602,7 +611,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0</v>
@@ -619,7 +628,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0</v>
@@ -636,7 +645,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0</v>
@@ -653,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0</v>
@@ -670,7 +679,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0</v>
@@ -687,7 +696,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0</v>
@@ -704,7 +713,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0</v>
@@ -721,7 +730,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0</v>
@@ -738,7 +747,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0</v>
@@ -755,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0</v>
@@ -772,7 +781,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0</v>
@@ -789,7 +798,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0</v>
@@ -806,7 +815,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0</v>
@@ -823,10 +832,10 @@
         <v>37</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>109000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>2019</v>
@@ -840,10 +849,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0</v>
+        <v>109000</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>2019</v>
@@ -857,7 +866,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>0</v>
@@ -874,7 +883,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>0</v>
@@ -891,7 +900,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>0</v>
@@ -908,7 +917,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>0</v>
@@ -925,7 +934,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>0</v>
@@ -942,7 +951,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>0</v>
@@ -959,7 +968,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>0</v>
@@ -976,10 +985,10 @@
         <v>46</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>114000</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2019</v>
@@ -993,10 +1002,10 @@
         <v>47</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>2019</v>
@@ -1010,7 +1019,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>0</v>
@@ -1027,7 +1036,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>0</v>
@@ -1044,7 +1053,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>0</v>
@@ -1061,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>0</v>
@@ -1078,7 +1087,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>0</v>
@@ -1095,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>0</v>
@@ -1112,7 +1121,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>0</v>
@@ -1129,7 +1138,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>0</v>
@@ -1146,7 +1155,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>0</v>
@@ -1163,10 +1172,10 @@
         <v>57</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>223000</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>2019</v>
@@ -1180,10 +1189,10 @@
         <v>58</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>0</v>
+        <v>223000</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>2019</v>
@@ -1197,7 +1206,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>0</v>
@@ -1214,7 +1223,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>0</v>
@@ -1231,7 +1240,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>0</v>
@@ -1248,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>0</v>
@@ -1265,7 +1274,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>0</v>
@@ -1282,10 +1291,10 @@
         <v>64</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>223000</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>2019</v>
@@ -1299,10 +1308,10 @@
         <v>65</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>0</v>
+        <v>223000</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>2019</v>
@@ -1316,15 +1325,49 @@
         <v>66</v>
       </c>
       <c r="B62" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C63" s="1" t="n">
         <v>223000</v>
       </c>
-      <c r="D62" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="D63" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/dist/outputs/Retenciones-Estructurado.xlsx
+++ b/dist/outputs/Retenciones-Estructurado.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Concepto</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Servicios (Base sujeta a retención para pagos o abonos en cuenta)</t>
   </si>
   <si>
-    <t>Rendimientos financieros e intereses (Base sujeta a retención para pagos o abonos en cuenta)</t>
+    <t>Rendimientos financieros (Base sujeta a retención para pagos o abonos en cuenta)</t>
   </si>
   <si>
     <t>Arrendamientos (Muebles e inmuebles) (Base sujeta a retención para pagos o abonos en cuenta)</t>
@@ -79,7 +79,7 @@
     <t>Otros pagos sujetos a retención (Base sujeta a retención para pagos o abonos en cuenta)</t>
   </si>
   <si>
-    <t>Autorretenciones - Contribuyentes exonerados de aportes (art. 114-1 E.T.) (Base sujeta a retención para pagos o abonos en cuenta)</t>
+    <t>Autorretenciones - Decreto 2201 de 2016  (Base sujeta a retención para pagos o abonos en cuenta)</t>
   </si>
   <si>
     <t>Autorretenciones - Ventas (Base sujeta a retención para pagos o abonos en cuenta)</t>
@@ -97,9 +97,6 @@
     <t>Autorretenciones - Rendimientos financieros (Base sujeta a retención para pagos o abonos en cuenta)</t>
   </si>
   <si>
-    <t>Autorretenciones - Pagos mensuales provisionales de carácter voluntario (hidrocarburos y demás productos mineros) (Base sujeta a retención para pagos o abonos en cuenta)</t>
-  </si>
-  <si>
     <t>Autorretenciones - Otros conceptos (Base sujeta a retención para pagos o abonos en cuenta)</t>
   </si>
   <si>
@@ -124,7 +121,7 @@
     <t>Servicios(Retenciones a título de renta)</t>
   </si>
   <si>
-    <t>Rendimientos financieros e intereses(Retenciones a título de renta)</t>
+    <t>Rendimientos financieros (Retenciones a título de renta)</t>
   </si>
   <si>
     <t>Arrendamientos (Muebles e inmuebles)(Retenciones a título de renta)</t>
@@ -154,7 +151,7 @@
     <t>Otros pagos sujetos a retención(Retenciones a título de renta)</t>
   </si>
   <si>
-    <t>Autorretenciones - Contribuyentes exonerados de aportes (art. 114-1 E.T.)(Retenciones a título de renta)</t>
+    <t>Autorretenciones - Decreto 2201 de 2016 (Retenciones a título de renta)</t>
   </si>
   <si>
     <t>Autorretenciones - Ventas(Retenciones a título de renta)</t>
@@ -172,9 +169,6 @@
     <t>Autorretenciones - Rendimientos financieros(Retenciones a título de renta)</t>
   </si>
   <si>
-    <t>Autorretenciones - Pagos mensuales provisionales de carácter voluntario (hidrocarburos y demás productos mineros)(Retenciones a título de renta)</t>
-  </si>
-  <si>
     <t>Autorretenciones - Otros conceptos(Retenciones a título de renta)</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
   </si>
   <si>
     <t>Retenciones impuesto timbre nacional</t>
-  </si>
-  <si>
-    <t>Retenciones impuesto nacional al consumo</t>
   </si>
   <si>
     <t>Total retenciones</t>
@@ -273,7 +264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -308,10 +299,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -328,7 +319,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -345,7 +336,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -362,7 +353,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -379,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -393,10 +384,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>59000</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -413,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -427,10 +418,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>3706000</v>
+        <v>3327000</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -447,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -464,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -481,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -498,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -515,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -532,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -549,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
@@ -563,10 +554,10 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0</v>
+        <v>11864000</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -580,10 +571,10 @@
         <v>42</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>14260000</v>
+        <v>19677000</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
@@ -600,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -617,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
@@ -634,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -651,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -668,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -685,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -702,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -719,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -736,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
@@ -753,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
@@ -770,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
@@ -787,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
@@ -801,10 +792,10 @@
         <v>55</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
@@ -821,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
@@ -835,10 +826,10 @@
         <v>57</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>0</v>
+        <v>98000</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
@@ -852,10 +843,10 @@
         <v>58</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>109000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>6</v>
@@ -872,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
@@ -889,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
@@ -906,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
@@ -923,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
@@ -940,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
@@ -957,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
@@ -971,10 +962,10 @@
         <v>65</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>0</v>
+        <v>415000</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
@@ -988,10 +979,10 @@
         <v>66</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>0</v>
+        <v>157000</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
@@ -1005,10 +996,10 @@
         <v>67</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>114000</v>
+        <v>0</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -1025,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
@@ -1042,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
@@ -1059,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
@@ -1076,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -1093,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
@@ -1110,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
@@ -1127,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -1144,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -1158,10 +1149,10 @@
         <v>76</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>0</v>
+        <v>671000</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -1178,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -1192,10 +1183,10 @@
         <v>78</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>223000</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -1212,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -1229,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -1246,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -1260,10 +1251,10 @@
         <v>82</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>0</v>
+        <v>671000</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -1280,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -1294,10 +1285,10 @@
         <v>84</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>0</v>
+        <v>671000</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -1308,66 +1299,15 @@
         <v>65</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>223000</v>
+        <v>91</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="C62" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>223000</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E64" s="1" t="s">
         <v>6</v>
       </c>
     </row>
